--- a/biology/Zoologie/Bouvreuil/Bouvreuil.xlsx
+++ b/biology/Zoologie/Bouvreuil/Bouvreuil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrrhula
-Les bouvreuils (du latin bovariolus, « petit bœuf » à cause de leur corps trapu ou « petit bouvier » car suivant volontiers le laboureur qui conduit la charrue) forment le genre Pyrrhula (du grec pyrrhos, « couleur de feu », référence à la couleur flamme de leur plastron)[1]. Ce sont des passereaux appartenant à la famille des Fringillidae et à la sous-famille des Carduelinae. On compte sept espèces de bouvreuils, dont un, le bouvreuil des Açores, est en danger critique d'extinction selon l'UICN. Cette dernière espèce vit aux Açores, tandis que les six autres se trouvent toutes en Eurasie.
+Les bouvreuils (du latin bovariolus, « petit bœuf » à cause de leur corps trapu ou « petit bouvier » car suivant volontiers le laboureur qui conduit la charrue) forment le genre Pyrrhula (du grec pyrrhos, « couleur de feu », référence à la couleur flamme de leur plastron). Ce sont des passereaux appartenant à la famille des Fringillidae et à la sous-famille des Carduelinae. On compte sept espèces de bouvreuils, dont un, le bouvreuil des Açores, est en danger critique d'extinction selon l'UICN. Cette dernière espèce vit aux Açores, tandis que les six autres se trouvent toutes en Eurasie.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 14.1, 2024)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 14.1, 2024) :
 Pyrrhula nipalensis Hodgson, 1836 – Bouvreuil brun
 Pyrrhula aurantiaca Gould, 1858 – Bouvreuil orangé
 Pyrrhula erythrocephala Vigors, 1832 – Bouvreuil à tête rouge
@@ -523,7 +537,7 @@
 Pyrrhula leucogenis Ogilvie-Grant, 1895 – Bouvreuil des Philippines
 Pyrrhula pyrrhula Linnaeus, 1758 – Bouvreuil pivoine
 Pyrrhula murina Godman, 1866 – Bouvreuil des Açores
-En 2017, une nouvelle espèce (disparue) a été décrite (Zootaxa)[3] :
+En 2017, une nouvelle espèce (disparue) a été décrite (Zootaxa) :
 Pyrrhula crassa Rando, Pieper, Olson, Pereira &amp; Alcover.</t>
         </is>
       </c>
